--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B6BF7-A3F9-4B15-A912-66B2A11D01B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55312608-D88B-43B1-A91D-9E70638B6BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="19356" windowHeight="11160" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>guyhal12</t>
+  </si>
+  <si>
+    <t>Maya12</t>
+  </si>
+  <si>
+    <t>a!123456</t>
   </si>
 </sst>
 </file>
@@ -408,18 +414,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225582C5-70BE-4538-AD58-35CFDD3B621B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -435,7 +441,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -443,7 +449,7 @@
         <v>321654</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -451,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -460,6 +466,17 @@
       </c>
       <c r="C5">
         <v>123456789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>59289116</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\OneDrive\Desktop\FinalPROJECTbirds\ProjectBirdsz\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55312608-D88B-43B1-A91D-9E70638B6BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299FD730-EE07-4A0B-A0D4-51845BDABAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="19356" windowHeight="11160" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>a!123456</t>
+  </si>
+  <si>
+    <t>orelhen</t>
+  </si>
+  <si>
+    <t>1234567@a</t>
   </si>
 </sst>
 </file>
@@ -414,18 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225582C5-70BE-4538-AD58-35CFDD3B621B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +447,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -449,7 +455,7 @@
         <v>321654</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -457,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +474,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -477,6 +483,17 @@
       </c>
       <c r="C6">
         <v>59289116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299FD730-EE07-4A0B-A0D4-51845BDABAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B238D-3BC4-4B4F-AC57-0F6825598072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11452" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -44,31 +44,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>GUY</t>
+    <t>Id</t>
   </si>
   <si>
-    <t>HALIVA</t>
-  </si>
-  <si>
-    <t>orel22</t>
+    <t>Guyal15</t>
   </si>
   <si>
     <t>123456a!</t>
-  </si>
-  <si>
-    <t>guyhal12</t>
-  </si>
-  <si>
-    <t>Maya12</t>
-  </si>
-  <si>
-    <t>a!123456</t>
-  </si>
-  <si>
-    <t>orelhen</t>
-  </si>
-  <si>
-    <t>1234567@a</t>
   </si>
 </sst>
 </file>
@@ -420,80 +402,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225582C5-70BE-4538-AD58-35CFDD3B621B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.53125" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>321654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>59289116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>123456789</v>
+      <c r="C2">
+        <v>316471465</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B238D-3BC4-4B4F-AC57-0F6825598072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640B1380-051B-49AE-BE0F-A5B3E992ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>123456a!</t>
+  </si>
+  <si>
+    <t>guyhal12</t>
+  </si>
+  <si>
+    <t>orelhen2</t>
+  </si>
+  <si>
+    <t>321654a!</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225582C5-70BE-4538-AD58-35CFDD3B621B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -436,6 +445,28 @@
         <v>316471465</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>316471465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>316179423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640B1380-051B-49AE-BE0F-A5B3E992ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99570E-2B01-41CF-80FE-F4DFBF611ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>321654a!</t>
+  </si>
+  <si>
+    <t>maya33</t>
+  </si>
+  <si>
+    <t>guyalu1</t>
+  </si>
+  <si>
+    <t>ortal12</t>
+  </si>
+  <si>
+    <t>tree12</t>
+  </si>
+  <si>
+    <t>1234567@a</t>
   </si>
 </sst>
 </file>
@@ -411,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225582C5-70BE-4538-AD58-35CFDD3B621B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -467,6 +482,61 @@
         <v>316179423</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>316471465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>50657646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>316471465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99570E-2B01-41CF-80FE-F4DFBF611ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3DA94-9ACC-484E-9741-E1B8823E7DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Guyal15</t>
-  </si>
-  <si>
     <t>123456a!</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>1234567@a</t>
+  </si>
+  <si>
+    <t>guyal15</t>
   </si>
 </sst>
 </file>
@@ -90,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +436,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,22 +446,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>316471465</v>
@@ -462,10 +469,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>316471465</v>
@@ -473,10 +480,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>316179423</v>
@@ -484,10 +491,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>123456789</v>
@@ -495,10 +502,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>316471465</v>
@@ -506,10 +513,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>50657646</v>
@@ -517,10 +524,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8">
         <v>123456789</v>
@@ -528,10 +535,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>316471465</v>

--- a/ProjectBirdsz/bin/Debug/users.xlsx
+++ b/ProjectBirdsz/bin/Debug/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\source\repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyal\Source\Repos\NewBirds\ProjectBirdsz\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3DA94-9ACC-484E-9741-E1B8823E7DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF174F-5126-4A30-8257-FA69E6EA284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{B4939ECA-BB0E-4D06-B922-173465331901}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>guyal15</t>
+  </si>
+  <si>
+    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225582C5-70BE-4538-AD58-35CFDD3B621B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -544,6 +547,17 @@
         <v>316471465</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>309308906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
